--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_14_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_14_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53411.71301172594</v>
+        <v>10628930.88933345</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53411.71301172594</v>
+        <v>10628930.88933345</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3484.8785207597</v>
+        <v>504456.4268399833</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3484.8785207597</v>
+        <v>504456.4268399833</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265827055.203134</v>
+        <v>51848183.97207068</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10567.10470000893</v>
+        <v>1166392.903782527</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20311.88486394218</v>
+        <v>2204809.577998125</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30056.66502787542</v>
+        <v>3243226.252213725</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40260.49197276446</v>
+        <v>4302179.206649733</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50363.98275603733</v>
+        <v>5341165.264924124</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60467.47353931019</v>
+        <v>6380151.323198514</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70570.96432258304</v>
+        <v>7419137.381472901</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80674.4551058559</v>
+        <v>8458123.439747287</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90777.94588912876</v>
+        <v>9497109.498021673</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100881.4366724016</v>
+        <v>10536095.55629606</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110984.9274556745</v>
+        <v>11575081.61457045</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120629.3714579915</v>
+        <v>12593531.39262444</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130374.1516219247</v>
+        <v>13631948.06684005</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140657.7066195646</v>
+        <v>14589122.27483283</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150941.2616172046</v>
+        <v>15546296.48282561</v>
       </c>
     </row>
   </sheetData>
